--- a/data/EV/battery_cell_dataset.xlsx
+++ b/data/EV/battery_cell_dataset.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Moin\PycharmProjects\EV_sim\data\EV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB3CF66-0BF7-4C0B-BC2A-B5ACB16ECA05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7441046-CFA5-4636-8940-7145DAFDB111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
+    <sheet name="Sources" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
   <si>
     <t>Parameter Classification</t>
   </si>
@@ -58,6 +59,39 @@
   </si>
   <si>
     <t>E66A</t>
+  </si>
+  <si>
+    <t>Samsung SDI</t>
+  </si>
+  <si>
+    <t>Samsung_60Ahr</t>
+  </si>
+  <si>
+    <t>Samsung_90Ahr</t>
+  </si>
+  <si>
+    <t>Samsung_SDI_90Ahr</t>
+  </si>
+  <si>
+    <t>https://insideevs.com/news/338067/bmw-i3-samsung-sdi-94-ah-battery-rated-for-524000-miles/</t>
+  </si>
+  <si>
+    <t>Samsung_SDI_60Ahr</t>
+  </si>
+  <si>
+    <t>https://avt.inl.gov/sites/default/files/pdf/fsev/batteryi5486.pdf</t>
+  </si>
+  <si>
+    <t>chemistry</t>
+  </si>
+  <si>
+    <t>NMC622</t>
+  </si>
+  <si>
+    <t>https://cdn.shopify.com/s/files/1/0480/6521/6669/files/BMW_Samsung_SDI_94Ah_Datasheet.pdf?v=1605781107</t>
+  </si>
+  <si>
+    <t>Samsung_120Ahr</t>
   </si>
 </sst>
 </file>
@@ -375,93 +409,196 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>60</v>
+      </c>
+      <c r="D3">
+        <v>60</v>
+      </c>
+      <c r="E3">
+        <v>90</v>
+      </c>
+      <c r="F3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>820</v>
+      </c>
+      <c r="E4">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>4.2</v>
+      </c>
+      <c r="D5">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="E5">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>3.6665999999999999</v>
+      </c>
+      <c r="D6">
+        <v>3.6665999999999999</v>
+      </c>
+      <c r="E6">
+        <v>3.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>2.5</v>
+      </c>
+      <c r="D7">
+        <v>2.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B8" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C1701FA-A46A-4CCA-9ABF-8B36308BE65D}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="89.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="103.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C1" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C5">
-        <v>4.2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>3.6665999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>2.5</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
